--- a/institutes.xlsx
+++ b/institutes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE931543-AA76-46F9-929F-B5DFE11E7728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954DF62E-A08F-4294-A63A-3B7DBF252697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="117">
   <si>
     <t>Name</t>
   </si>
@@ -364,9 +364,6 @@
   </si>
   <si>
     <t>Faculty Hospital Studies</t>
-  </si>
-  <si>
-    <t>Faculty Studies</t>
   </si>
   <si>
     <t>Faculty Pharmacy Studies</t>
@@ -710,7 +707,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -813,7 +810,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -1121,7 +1118,7 @@
         <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
         <v>59</v>
@@ -1261,7 +1258,7 @@
         <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" t="s">
         <v>79</v>
@@ -1311,7 +1308,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B43" t="s">
         <v>87</v>
@@ -1331,7 +1328,7 @@
         <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
         <v>88</v>
@@ -1345,7 +1342,7 @@
         <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D45" t="s">
         <v>90</v>
